--- a/BalanceSheet/MSFT_bal.xlsx
+++ b/BalanceSheet/MSFT_bal.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2245000000.0</v>
+        <v>1916000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2712000000.0</v>
@@ -519,7 +519,7 @@
         <v>1825000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2622000000.0</v>
+        <v>1823000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2622000000.0</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>54945000000.0</v>
+        <v>65618000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>62035000000.0</v>
@@ -900,7 +900,7 @@
         <v>49669000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>48961000000.0</v>
+        <v>40522000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>38409000000.0</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5395000000.0</v>
+        <v>5429000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3882000000.0</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>14427000000.0</v>
+        <v>14393000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>13473000000.0</v>
@@ -1281,7 +1281,7 @@
         <v>11196000000.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>12230000000.0</v>
+        <v>14630000000.0</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>14455000000.0</v>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>13412000000.0</v>
+        <v>14245000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12803000000.0</v>
@@ -1662,7 +1662,7 @@
         <v>9792000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>8804000000.0</v>
+        <v>8811000000.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>8574000000.0</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>8051000000.0</v>
+        <v>10680000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7952000000.0</v>
@@ -1916,7 +1916,7 @@
         <v>5775000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>8327000000.0</v>
+        <v>6247000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3017000000.0</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10450000000.0</v>
+        <v>45936000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45202000000.0</v>
@@ -2305,7 +2305,7 @@
         <v>40390000000.0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>39815000000.0</v>
+        <v>9131000000.0</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>8507000000.0</v>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50007000000.0</v>
+        <v>70580000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>74830000000.0</v>
@@ -2559,7 +2559,7 @@
         <v>78250000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>78820000000.0</v>
+        <v>63361000000.0</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>66478000000.0</v>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>173000000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>157000000.0</v>
@@ -2813,7 +2813,7 @@
         <v>-21000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>169000000.0</v>
+        <v>222000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>234000000.0</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>40098000000.0</v>
+        <v>28797000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>28426000000.0</v>
@@ -2940,7 +2940,7 @@
         <v>30421000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>30125000000.0</v>
+        <v>38412000000.0</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>37283000000.0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-67349000000.0</v>
+        <v>-44147000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>-49186000000.0</v>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>58058000000.0</v>
+        <v>81260000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>82782000000.0</v>

--- a/BalanceSheet/MSFT_bal.xlsx
+++ b/BalanceSheet/MSFT_bal.xlsx
@@ -4210,7 +4210,7 @@
         <v>-53601000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-47106000000.0</v>
+        <v>-64645000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>-67141000000.0</v>
@@ -4337,7 +4337,7 @@
         <v>84025000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>87147000000.0</v>
+        <v>69608000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>69495000000.0</v>
